--- a/HeadStart/Promotion/contactsList.xlsx
+++ b/HeadStart/Promotion/contactsList.xlsx
@@ -7,15 +7,18 @@
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="פייסבוק" sheetId="1" r:id="rId1"/>
+    <sheet name="אנשי קשר" sheetId="1" r:id="rId1"/>
     <sheet name="רעיונות" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'אנשי קשר'!$A$1:$E$36</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
   <si>
     <t>רויטל ויטלזון</t>
   </si>
@@ -26,16 +29,7 @@
     <t>סוג ערוץ</t>
   </si>
   <si>
-    <t>דיברתי איתה לפני הקמפיין ?</t>
-  </si>
-  <si>
-    <t>העברתי לה פרטים אחרי שהקמפיין עלה ?</t>
-  </si>
-  <si>
     <t>חשבון פייסבוק</t>
-  </si>
-  <si>
-    <t>סלונה</t>
   </si>
   <si>
     <t>הקונה נחמה</t>
@@ -49,13 +43,388 @@
   </si>
   <si>
     <t>קמפיין אינטרנטי בתשלום ?</t>
+  </si>
+  <si>
+    <t>קמפיין לוחות מודעות בצפון הישן של תל אביב</t>
+  </si>
+  <si>
+    <t>מעגל</t>
+  </si>
+  <si>
+    <t>שחר גרינברג</t>
+  </si>
+  <si>
+    <t>אפרת</t>
+  </si>
+  <si>
+    <t>רחלי</t>
+  </si>
+  <si>
+    <t>אני</t>
+  </si>
+  <si>
+    <t>בר חיים</t>
+  </si>
+  <si>
+    <t>איתן חולון</t>
+  </si>
+  <si>
+    <t>אפי שוב</t>
+  </si>
+  <si>
+    <t>תמי צפתי</t>
+  </si>
+  <si>
+    <t>עדו פריידלין</t>
+  </si>
+  <si>
+    <t>שחר מינקוב</t>
+  </si>
+  <si>
+    <t>מירב גופר</t>
+  </si>
+  <si>
+    <t>אמיר חמיש</t>
+  </si>
+  <si>
+    <t>רועי הרשמן</t>
+  </si>
+  <si>
+    <t>תרם ?</t>
+  </si>
+  <si>
+    <t>כן</t>
+  </si>
+  <si>
+    <t>שי בר חיים</t>
+  </si>
+  <si>
+    <t>רונית בר חיים</t>
+  </si>
+  <si>
+    <t>רן בר חיים</t>
+  </si>
+  <si>
+    <t>אורי חלמיש</t>
+  </si>
+  <si>
+    <t>יהודית נדל</t>
+  </si>
+  <si>
+    <t>נועה סמפולינקי</t>
+  </si>
+  <si>
+    <t>יוסי קאופמן</t>
+  </si>
+  <si>
+    <t>אביחי בוכהולץ</t>
+  </si>
+  <si>
+    <t>נועם שפר</t>
+  </si>
+  <si>
+    <t>רוית לבנון</t>
+  </si>
+  <si>
+    <t>שמוליק אדלר</t>
+  </si>
+  <si>
+    <t>הילה מיזלס</t>
+  </si>
+  <si>
+    <t>יעל פייגלין</t>
+  </si>
+  <si>
+    <t>גיל משען</t>
+  </si>
+  <si>
+    <t>שינפלד רועי ומירי</t>
+  </si>
+  <si>
+    <t>נתי יפה</t>
+  </si>
+  <si>
+    <t>צביקה פרידמן (ארין)</t>
+  </si>
+  <si>
+    <t>ביקשתי שיעשה SHARE, קצת מסובך אצלו כי הדף מסודר</t>
+  </si>
+  <si>
+    <t>ביקשתי שיעשה SHARE</t>
+  </si>
+  <si>
+    <t>יוסי קספי</t>
+  </si>
+  <si>
+    <t>ל"ר</t>
+  </si>
+  <si>
+    <t>אביגיל ריינר</t>
+  </si>
+  <si>
+    <t>שלחתי לה בפייסבוק וביקשתי שתעשה SHARE</t>
+  </si>
+  <si>
+    <t>ביקשתי שיעשה SHARE במייל</t>
+  </si>
+  <si>
+    <t>ביקשתי ממנה שתעשה SHARE</t>
+  </si>
+  <si>
+    <t>ביקשתי ממנה לעשות SHARE בווטסאפ</t>
+  </si>
+  <si>
+    <t>בלוג</t>
+  </si>
+  <si>
+    <t>http://www.internet-mom.com/
+יש לה מסלול לשיתופי פעולה עם עסקים מתחילים, שלחתי לה מייל</t>
+  </si>
+  <si>
+    <t>בלוג בפייסבוק</t>
+  </si>
+  <si>
+    <t>http://www.mylovelymess.com/</t>
+  </si>
+  <si>
+    <t>bubblesblogroup@gmail.com
+https://www.facebook.com/bubblesblogroup</t>
+  </si>
+  <si>
+    <t>פרטי קשר</t>
+  </si>
+  <si>
+    <t>סטאטוס הפצה</t>
+  </si>
+  <si>
+    <t>שלחתי מייל</t>
+  </si>
+  <si>
+    <t>פתוח</t>
+  </si>
+  <si>
+    <t>http://coolandbello.co.il/
+contact@coolandbello.co.il</t>
+  </si>
+  <si>
+    <t>אהבה את הרעיון, שלחתי לה תמונות ולוגו, פירסמה</t>
+  </si>
+  <si>
+    <t>אמא אינטרנט</t>
+  </si>
+  <si>
+    <t>Bubbles - Life Style Blogroup</t>
+  </si>
+  <si>
+    <t>קול ו בלו</t>
+  </si>
+  <si>
+    <t>פאשן בייבי</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dafnababy5@gmail.com‬
+http://babyfashion.co.il/
+</t>
+  </si>
+  <si>
+    <t>תוכנית טלויזיה</t>
+  </si>
+  <si>
+    <t>hazinor@nana10.co.il</t>
+  </si>
+  <si>
+    <t>צינור לילה - ערוץ 10</t>
+  </si>
+  <si>
+    <t>בלוג בתפוז</t>
+  </si>
+  <si>
+    <t>מדריך השופיסטית לגלקסיה</t>
+  </si>
+  <si>
+    <t>תפוז</t>
+  </si>
+  <si>
+    <t>http://basalsela.co.il/
+basal.mail@gmail.com</t>
+  </si>
+  <si>
+    <t>בסלסלה</t>
+  </si>
+  <si>
+    <t>שלחתי מייל - להשתמש כבסיס</t>
+  </si>
+  <si>
+    <t>http://saloona.co.il/kona/</t>
+  </si>
+  <si>
+    <t>שלחתי מייל דרך פייסבוק</t>
+  </si>
+  <si>
+    <t>שלחתי לו מייל, ביקשתי שיעשה SHARE לסרטון</t>
+  </si>
+  <si>
+    <t>לא</t>
+  </si>
+  <si>
+    <t>ביקשתי שתעשה SHARE</t>
+  </si>
+  <si>
+    <t>blingblingformoms@gmail.com
+http://www.blingbling.co.il/</t>
+  </si>
+  <si>
+    <t>בלינג בלינג</t>
+  </si>
+  <si>
+    <t>שוגר בייבי - מיכל גונן XNET</t>
+  </si>
+  <si>
+    <t>טור צרכנות באתר</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> support@sugarbaby.co.il</t>
+  </si>
+  <si>
+    <t>ביקשתי ממנו לעשות SHARE</t>
+  </si>
+  <si>
+    <t>מירי</t>
+  </si>
+  <si>
+    <t>שלי מנדל</t>
+  </si>
+  <si>
+    <t>רחלי בן שימול</t>
+  </si>
+  <si>
+    <t>גלרמן עינת</t>
+  </si>
+  <si>
+    <t>gilisivan1@gmail.com
+http://www.gilisivan.com/</t>
+  </si>
+  <si>
+    <t>כרגע לא שלחתי מייל</t>
+  </si>
+  <si>
+    <t>גילי סיוון</t>
+  </si>
+  <si>
+    <t>סטייליסטית</t>
+  </si>
+  <si>
+    <t>נוגה ניר</t>
+  </si>
+  <si>
+    <t>כתבת צרכנות ערוץ 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ‫nogan@10.tv‬</t>
+  </si>
+  <si>
+    <t>שלחתי מייל דרך תפוז
+כתבה לי שהיא צריכה להתנסות - כתבתי לה שאני אקבל בהמשך משלוח ואשלח לה דוגמאות +
+אמרה שתשלח לי כתובות של בלוגריות נוספות</t>
+  </si>
+  <si>
+    <t>מרמלדה</t>
+  </si>
+  <si>
+    <t>דרך צור קשר באתר</t>
+  </si>
+  <si>
+    <t>נשלח</t>
+  </si>
+  <si>
+    <t>התכתבנו מעט, אמרה שתכתוב כתבה כללית על הדסטרטר ושתשלב אותי, כתבתי לה מספר פרטים. פרסמה באתר כולל דיוור ופירסום בפייסבוק</t>
+  </si>
+  <si>
+    <t>נשים</t>
+  </si>
+  <si>
+    <t>דרך הפייסבוק נשלחה בקשה לכתובת המייל</t>
+  </si>
+  <si>
+    <t>מוצש</t>
+  </si>
+  <si>
+    <t>עיתון</t>
+  </si>
+  <si>
+    <t>motzash.events@gmail.com</t>
+  </si>
+  <si>
+    <t>פנימה</t>
+  </si>
+  <si>
+    <t>נשלח דרך "צור קשר" באתר</t>
+  </si>
+  <si>
+    <t>http://pnima.co/</t>
+  </si>
+  <si>
+    <t>וואלה</t>
+  </si>
+  <si>
+    <t>אתר</t>
+  </si>
+  <si>
+    <t>אפרת אהרוני - גלובס</t>
+  </si>
+  <si>
+    <t>נשלח, להשתמש כתבנית. עודכנו הלינקים</t>
+  </si>
+  <si>
+    <t>efrat-a@globes.co.il,
+‫roy-g@globes.co.il‬</t>
+  </si>
+  <si>
+    <t>YNET</t>
+  </si>
+  <si>
+    <t>לחפש
+נשלח בינתיים ב"שלח חומר" עבור קהילות</t>
+  </si>
+  <si>
+    <t>WALLA</t>
+  </si>
+  <si>
+    <t>לחפש
+נשלח בינתיים ב"שלח חומר" עבור אופנה</t>
+  </si>
+  <si>
+    <t>THE MARKER</t>
+  </si>
+  <si>
+    <t>זמנים מודרניים - ידיעות אחרונות</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>תוכנית רדיו על צרכנות ברשת, יועצת לשיווק ברשת</t>
+  </si>
+  <si>
+    <t>אוסי גלבוע</t>
+  </si>
+  <si>
+    <t>hameavrer@gmail.com
+http://www.hameavrer.com/
+ 054-7744565</t>
+  </si>
+  <si>
+    <t>zmanim@yedioth.co.il‬</t>
+  </si>
+  <si>
+    <t>מעריב - סגנון</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +433,49 @@
       <charset val="177"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="177"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -97,10 +502,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -108,8 +514,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -409,109 +844,1042 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F66"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F66" sqref="A66:F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="2" max="2" width="15.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="36.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="35" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="D1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2"/>
+      <c r="E2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
-    </row>
-    <row r="5" spans="1:4" ht="85.5" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="3"/>
       <c r="B5" s="2" t="s">
-        <v>9</v>
+        <v>89</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="3"/>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="4">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="4">
+        <v>2</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
+        <v>2</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" s="4">
+        <v>2</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" s="4">
+        <v>2</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>2</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
+        <v>3</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="60" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>3</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="3"/>
+      <c r="F42" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>3</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>3</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E44" s="3"/>
+      <c r="F44" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="F45" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>3</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="3"/>
+      <c r="F46" s="10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>3</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>3</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="3"/>
+      <c r="F49" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
+        <v>3</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+      <c r="A51" s="4">
+        <v>3</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
+        <v>3</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>3</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>3</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>3</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>3</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="3"/>
+      <c r="F56" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A57" s="4">
+        <v>3</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E57" s="3"/>
+      <c r="F57" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A58" s="4">
+        <v>3</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A59" s="4">
+        <v>3</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E59" s="3"/>
+      <c r="F59" s="11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A60" s="12"/>
+      <c r="B60" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E60" s="12"/>
+      <c r="F60" s="13"/>
+    </row>
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="12"/>
+      <c r="B61" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E61" s="12"/>
+      <c r="F61" s="13"/>
+    </row>
+    <row r="62" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A62" s="12"/>
+      <c r="B62" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E62" s="12"/>
+      <c r="F62" s="13"/>
+    </row>
+    <row r="63" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A63" s="4"/>
+      <c r="B63" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E63" s="4"/>
+      <c r="F63" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A64" s="12"/>
+      <c r="B64" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="13"/>
+    </row>
+    <row r="65" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="3"/>
+      <c r="B65" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65" s="3"/>
+      <c r="F65" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="12"/>
+      <c r="F66" s="13" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D41" r:id="rId1"/>
+    <hyperlink ref="D43" r:id="rId2"/>
+    <hyperlink ref="D45" r:id="rId3" display="dafnababy5@gmail.com‬_x000a_"/>
+    <hyperlink ref="D46" r:id="rId4"/>
+    <hyperlink ref="D49" r:id="rId5"/>
+    <hyperlink ref="D50" r:id="rId6" display="blingblingformoms@gmail.com"/>
+    <hyperlink ref="D52" r:id="rId7" display="gilisivan1@gmail.com"/>
+    <hyperlink ref="D56" r:id="rId8"/>
+    <hyperlink ref="D57" r:id="rId9"/>
+    <hyperlink ref="D59" r:id="rId10"/>
+    <hyperlink ref="D63" r:id="rId11"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/HeadStart/Promotion/contactsList.xlsx
+++ b/HeadStart/Promotion/contactsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
   <si>
     <t>רויטל ויטלזון</t>
   </si>
@@ -418,6 +418,12 @@
   </si>
   <si>
     <t>מעריב - סגנון</t>
+  </si>
+  <si>
+    <t>http://www.ynet.co.il/articles/0,7340,L-4151888,00.html</t>
+  </si>
+  <si>
+    <t>לחפש לפי אנשי הקשר בכתבה על כתבי אופנה</t>
   </si>
 </sst>
 </file>
@@ -506,7 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -540,6 +546,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -844,11 +853,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F66"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F66" sqref="A66:F66"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1843,6 +1852,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="C67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D41" r:id="rId1"/>
@@ -1856,9 +1873,10 @@
     <hyperlink ref="D57" r:id="rId9"/>
     <hyperlink ref="D59" r:id="rId10"/>
     <hyperlink ref="D63" r:id="rId11"/>
+    <hyperlink ref="D67" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/HeadStart/Promotion/contactsList.xlsx
+++ b/HeadStart/Promotion/contactsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>רויטל ויטלזון</t>
   </si>
@@ -424,6 +424,11 @@
   </si>
   <si>
     <t>לחפש לפי אנשי הקשר בכתבה על כתבי אופנה</t>
+  </si>
+  <si>
+    <t>אתרים של דוסים: מורשת  INN
+ כיפה 
+IWOMEN</t>
   </si>
 </sst>
 </file>
@@ -853,11 +858,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F67"/>
+  <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1858,6 +1863,11 @@
       </c>
       <c r="D67" s="15" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="C68" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/HeadStart/Promotion/contactsList.xlsx
+++ b/HeadStart/Promotion/contactsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
   <si>
     <t>רויטל ויטלזון</t>
   </si>
@@ -429,6 +429,9 @@
     <t>אתרים של דוסים: מורשת  INN
  כיפה 
 IWOMEN</t>
+  </si>
+  <si>
+    <t>תוכנית רדיו - לתת פרס תמורת איזכור השם שלי</t>
   </si>
 </sst>
 </file>
@@ -858,11 +861,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C69" sqref="C69"/>
+      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1868,6 +1871,11 @@
     <row r="68" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C69" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/HeadStart/Promotion/contactsList.xlsx
+++ b/HeadStart/Promotion/contactsList.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="167">
   <si>
     <t>רויטל ויטלזון</t>
   </si>
@@ -432,6 +432,111 @@
   </si>
   <si>
     <t>תוכנית רדיו - לתת פרס תמורת איזכור השם שלי</t>
+  </si>
+  <si>
+    <t>מיכל לוי</t>
+  </si>
+  <si>
+    <t>כתבת אופנה, מוסף 24 שעות, ידיעות אחרונות</t>
+  </si>
+  <si>
+    <t>, זמנים מודרניים ובלוג "המלבישה" ב-xnet</t>
+  </si>
+  <si>
+    <t>שלי גרוס</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, עורכת האופנה הראשית של Xnet </t>
+  </si>
+  <si>
+    <t>ענבל פרגר</t>
+  </si>
+  <si>
+    <t>, עורכת סטייל, שבועון "לאשה"</t>
+  </si>
+  <si>
+    <t>דורית בכר-סולל</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, סגנית עורכת סטייל, שבועון "לאשה" </t>
+  </si>
+  <si>
+    <t>מרב פרנק-הוכברג</t>
+  </si>
+  <si>
+    <t xml:space="preserve">, כתבת אופנה, Xnet </t>
+  </si>
+  <si>
+    <t>הדס שואף</t>
+  </si>
+  <si>
+    <t>, כתב אופנה, Xnet</t>
+  </si>
+  <si>
+    <t>איתי יעקב</t>
+  </si>
+  <si>
+    <t>, עורכת מגזין Go Style</t>
+  </si>
+  <si>
+    <t>ליאת קופלמן-לוי</t>
+  </si>
+  <si>
+    <t>, עורכת אופנה, מגזין Go Style</t>
+  </si>
+  <si>
+    <t>טל אלבלנסי-פרבר</t>
+  </si>
+  <si>
+    <t>, כתב אופנה, פנאי פלוס</t>
+  </si>
+  <si>
+    <t>גיא סילברמן</t>
+  </si>
+  <si>
+    <t>יעל בן-ישראל</t>
+  </si>
+  <si>
+    <t>כתבת האופנה של עיתון גלובס</t>
+  </si>
+  <si>
+    <t>, כתבת האופנה של כלכליסט</t>
+  </si>
+  <si>
+    <t>לרה רוטר</t>
+  </si>
+  <si>
+    <t>, עורכת ראשית, מגזין את</t>
+  </si>
+  <si>
+    <t>אביה בן-דוד</t>
+  </si>
+  <si>
+    <t>, כתב האופנה של אתר "לאשה"</t>
+  </si>
+  <si>
+    <t>אביב ברטלה</t>
+  </si>
+  <si>
+    <t>גבריאלה דוידוביץ ויסברג</t>
+  </si>
+  <si>
+    <t>כתבת צרכנות (?) THE MARKER</t>
+  </si>
+  <si>
+    <t>שוק ההורים</t>
+  </si>
+  <si>
+    <t>קבוצת פייסבו</t>
+  </si>
+  <si>
+    <t>https://www.facebook.com/ShukHorim</t>
+  </si>
+  <si>
+    <t>מאקו</t>
+  </si>
+  <si>
+    <t>אתר אינטרנט</t>
   </si>
 </sst>
 </file>
@@ -861,11 +966,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C70" sqref="C70"/>
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1876,6 +1981,145 @@
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B72" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B73" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B79" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B80" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B83" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="B84" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B85" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B86" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -1892,9 +2136,10 @@
     <hyperlink ref="D59" r:id="rId10"/>
     <hyperlink ref="D63" r:id="rId11"/>
     <hyperlink ref="D67" r:id="rId12"/>
+    <hyperlink ref="D85" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
 </worksheet>
 </file>
 
